--- a/WEBCTRL-configuration.xlsx
+++ b/WEBCTRL-configuration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\dspace-modelica-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16319C-37F1-4B6A-BE1D-960B4AEF7AF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D6B8C8-95CA-4640-B781-42E4ECF38053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="9195" xr2:uid="{6C31C70C-13EB-4CFA-9043-C23200C12AD3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>OA Temp</t>
   </si>
@@ -57,12 +57,6 @@
     <t>0/100</t>
   </si>
   <si>
-    <t>-20/120</t>
-  </si>
-  <si>
-    <t>(OF 1628-NR)</t>
-  </si>
-  <si>
     <t>Exp:Num</t>
   </si>
   <si>
@@ -70,6 +64,93 @@
   </si>
   <si>
     <t>00:02</t>
+  </si>
+  <si>
+    <t>Space Temp</t>
+  </si>
+  <si>
+    <t>VAV-2</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>0-5V</t>
+  </si>
+  <si>
+    <t>Supply air temperature</t>
+  </si>
+  <si>
+    <t>-20/120F</t>
+  </si>
+  <si>
+    <t>Flow Input</t>
+  </si>
+  <si>
+    <t>45/95F</t>
+  </si>
+  <si>
+    <t>25/125F</t>
+  </si>
+  <si>
+    <t>0/1400</t>
+  </si>
+  <si>
+    <t>0-10V</t>
+  </si>
+  <si>
+    <t>ALC Controller</t>
+  </si>
+  <si>
+    <t>OF 1628-NR</t>
+  </si>
+  <si>
+    <t>ZN431A</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Hardware/Webctrl Settings</t>
+  </si>
+  <si>
+    <t>VAV-1</t>
+  </si>
+  <si>
+    <t>Board-Slot</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>DS6241 D/A - 16</t>
+  </si>
+  <si>
+    <t>VAV-3</t>
+  </si>
+  <si>
+    <t>VAV-4</t>
+  </si>
+  <si>
+    <t>VAV-5</t>
+  </si>
+  <si>
+    <t>This AI input is from VAV-6 IN1</t>
+  </si>
+  <si>
+    <t>This AI input is from VAV-7 IN1</t>
+  </si>
+  <si>
+    <t>This AI input is from VAV-8 IN1</t>
+  </si>
+  <si>
+    <t>This AI input is from VAV-9 IN1</t>
+  </si>
+  <si>
+    <t>This AI input is from VAV-10 IN1</t>
   </si>
 </sst>
 </file>
@@ -85,12 +166,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,9 +192,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,147 +527,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329BBC30-32D4-4D63-803F-ED2BE5846A9C}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>